--- a/static/files/DMAX-2024-Live.xlsx
+++ b/static/files/DMAX-2024-Live.xlsx
@@ -8797,24 +8797,474 @@
       </c>
     </row>
     <row r="36" ht="13.2" customHeight="1">
-      <c r="BL36" s="10" t="n"/>
-      <c r="BM36" s="10" t="n"/>
-      <c r="BN36" s="11" t="n"/>
-      <c r="BO36" s="12" t="n"/>
-      <c r="BP36" s="13" t="n"/>
-      <c r="BQ36" s="12" t="n"/>
-      <c r="BR36" s="14" t="n"/>
-      <c r="BS36" s="14" t="n"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DC5231</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>test@qaoncloud.com</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Auxo</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>intern</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>10</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>20</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="n">
+        <v>30</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>40</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>50</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>60</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>70</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>90</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL36" s="10">
+        <f>SUM(IF(H36&gt;0,G36),IF(J36&gt;0,I36),IF(L36&gt;0,K36),IF(N36&gt;0,M36),IF(P36&gt;0,O36),IF(R36&gt;0,Q36),IF(T36&gt;0,S36),IF(V36&gt;0,U36),IF(X36&gt;0,W36),IF(Z36&gt;0,Y36),IF(AB36&gt;0,AA36),IF(AD36&gt;0,AC36),IF(AF36&gt;0,AE36),IF(AH36&gt;0,AG36),IF(AJ36&gt;0,AI36),IF(AL36&gt;0,AK36),IF(AN36&gt;0,AM36),IF(AP36&gt;0,AO36),IF(AR36&gt;0,AQ36))</f>
+        <v/>
+      </c>
+      <c r="BM36" s="10">
+        <f>SUM(H36,J36,L36,N36,P36,R36,T36,V36,X36,Z36,AB36,AD36,AF36,AH36,AJ36,AL36,AN36,AP36,AR36)</f>
+        <v/>
+      </c>
+      <c r="BN36" s="11">
+        <f>BA36/AZ36*40/100</f>
+        <v/>
+      </c>
+      <c r="BO36" s="12">
+        <f>IF(AU36=1,0,100-(SUM($AS36:$AV36)))*0.4/100</f>
+        <v/>
+      </c>
+      <c r="BP36" s="13">
+        <f>(AW36*1)*10/100</f>
+        <v/>
+      </c>
+      <c r="BQ36" s="12">
+        <f>AX36*10/100/100</f>
+        <v/>
+      </c>
+      <c r="BR36" s="14">
+        <f>AY36*10/100/100</f>
+        <v/>
+      </c>
+      <c r="BS36" s="14">
+        <f>SUM(BB36:BF36)</f>
+        <v/>
+      </c>
     </row>
     <row r="37" ht="13.2" customHeight="1">
-      <c r="BL37" s="10" t="n"/>
-      <c r="BM37" s="10" t="n"/>
-      <c r="BN37" s="11" t="n"/>
-      <c r="BO37" s="12" t="n"/>
-      <c r="BP37" s="13" t="n"/>
-      <c r="BQ37" s="12" t="n"/>
-      <c r="BR37" s="14" t="n"/>
-      <c r="BS37" s="14" t="n"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DC5231</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>test@qaoncloud.com</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2024-09-07</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Auxo</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>intern</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>10</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>20</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>30</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>40</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>50</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>60</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>70</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>90</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL37" s="10">
+        <f>SUM(IF(H37&gt;0,G37),IF(J37&gt;0,I37),IF(L37&gt;0,K37),IF(N37&gt;0,M37),IF(P37&gt;0,O37),IF(R37&gt;0,Q37),IF(T37&gt;0,S37),IF(V37&gt;0,U37),IF(X37&gt;0,W37),IF(Z37&gt;0,Y37),IF(AB37&gt;0,AA37),IF(AD37&gt;0,AC37),IF(AF37&gt;0,AE37),IF(AH37&gt;0,AG37),IF(AJ37&gt;0,AI37),IF(AL37&gt;0,AK37),IF(AN37&gt;0,AM37),IF(AP37&gt;0,AO37),IF(AR37&gt;0,AQ37))</f>
+        <v/>
+      </c>
+      <c r="BM37" s="10">
+        <f>SUM(H37,J37,L37,N37,P37,R37,T37,V37,X37,Z37,AB37,AD37,AF37,AH37,AJ37,AL37,AN37,AP37,AR37)</f>
+        <v/>
+      </c>
+      <c r="BN37" s="11">
+        <f>BA37/AZ37*40/100</f>
+        <v/>
+      </c>
+      <c r="BO37" s="12">
+        <f>IF(AU37=1,0,100-(SUM($AS37:$AV37)))*0.4/100</f>
+        <v/>
+      </c>
+      <c r="BP37" s="13">
+        <f>(AW37*1)*10/100</f>
+        <v/>
+      </c>
+      <c r="BQ37" s="12">
+        <f>AX37*10/100/100</f>
+        <v/>
+      </c>
+      <c r="BR37" s="14">
+        <f>AY37*10/100/100</f>
+        <v/>
+      </c>
+      <c r="BS37" s="14">
+        <f>SUM(BB37:BF37)</f>
+        <v/>
+      </c>
     </row>
     <row r="38" ht="13.2" customHeight="1">
       <c r="BL38" s="10" t="n"/>
